--- a/longsor2014.xlsx
+++ b/longsor2014.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student2014\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student2014\Documents\GitHub\DDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>PEMERINTAH ACEH</t>
   </si>
@@ -119,9 +119,6 @@
   </si>
   <si>
     <t>Papua barat</t>
-  </si>
-  <si>
-    <t>Kalsel</t>
   </si>
 </sst>
 </file>
@@ -498,13 +495,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C22" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
@@ -676,50 +676,50 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
         <v>18</v>
-      </c>
-      <c r="B23" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -727,7 +727,7 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -735,46 +735,38 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>6</v>
-      </c>
-      <c r="B34" t="s">
         <v>26</v>
       </c>
     </row>
